--- a/final_data_pipeline/output/311615longform.xlsx
+++ b/final_data_pipeline/output/311615longform.xlsx
@@ -915,7 +915,7 @@
         <v>117</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB2">
         <v>8000</v>
@@ -998,7 +998,7 @@
         <v>117</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB3">
         <v>8000</v>
@@ -1081,7 +1081,7 @@
         <v>117</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB4">
         <v>8000</v>
@@ -1164,7 +1164,7 @@
         <v>117</v>
       </c>
       <c r="AA5">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB5">
         <v>8000</v>
@@ -1247,7 +1247,7 @@
         <v>117</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB6">
         <v>8000</v>
@@ -1330,7 +1330,7 @@
         <v>117</v>
       </c>
       <c r="AA7">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB7">
         <v>8000</v>
@@ -1413,7 +1413,7 @@
         <v>117</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB8">
         <v>8000</v>
@@ -1496,7 +1496,7 @@
         <v>117</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB9">
         <v>8000</v>
@@ -1579,7 +1579,7 @@
         <v>117</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB10">
         <v>8000</v>
@@ -1662,7 +1662,7 @@
         <v>117</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB11">
         <v>8000</v>
@@ -1745,7 +1745,7 @@
         <v>117</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB12">
         <v>8000</v>
@@ -1828,7 +1828,7 @@
         <v>117</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB13">
         <v>8000</v>
@@ -1911,7 +1911,7 @@
         <v>117</v>
       </c>
       <c r="AA14">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB14">
         <v>8000</v>
@@ -1994,7 +1994,7 @@
         <v>117</v>
       </c>
       <c r="AA15">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB15">
         <v>8000</v>
@@ -2077,7 +2077,7 @@
         <v>117</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB16">
         <v>8000</v>
@@ -2160,7 +2160,7 @@
         <v>117</v>
       </c>
       <c r="AA17">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB17">
         <v>8000</v>
@@ -2243,7 +2243,7 @@
         <v>117</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB18">
         <v>8000</v>
@@ -2326,7 +2326,7 @@
         <v>117</v>
       </c>
       <c r="AA19">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB19">
         <v>8000</v>
@@ -2409,7 +2409,7 @@
         <v>117</v>
       </c>
       <c r="AA20">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB20">
         <v>8000</v>
@@ -2492,7 +2492,7 @@
         <v>117</v>
       </c>
       <c r="AA21">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB21">
         <v>8000</v>
@@ -2575,7 +2575,7 @@
         <v>117</v>
       </c>
       <c r="AA22">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB22">
         <v>8000</v>
@@ -2658,7 +2658,7 @@
         <v>117</v>
       </c>
       <c r="AA23">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB23">
         <v>8000</v>
@@ -2741,7 +2741,7 @@
         <v>117</v>
       </c>
       <c r="AA24">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB24">
         <v>8000</v>
@@ -2824,7 +2824,7 @@
         <v>117</v>
       </c>
       <c r="AA25">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB25">
         <v>8000</v>
@@ -6144,7 +6144,7 @@
         <v>117</v>
       </c>
       <c r="AA65">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB65">
         <v>8000</v>
@@ -6227,7 +6227,7 @@
         <v>117</v>
       </c>
       <c r="AA66">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB66">
         <v>8000</v>
@@ -6310,7 +6310,7 @@
         <v>117</v>
       </c>
       <c r="AA67">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB67">
         <v>8000</v>
@@ -6393,7 +6393,7 @@
         <v>117</v>
       </c>
       <c r="AA68">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB68">
         <v>8000</v>
@@ -6476,7 +6476,7 @@
         <v>117</v>
       </c>
       <c r="AA69">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB69">
         <v>8000</v>
@@ -6559,7 +6559,7 @@
         <v>117</v>
       </c>
       <c r="AA70">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB70">
         <v>8000</v>
@@ -6642,7 +6642,7 @@
         <v>117</v>
       </c>
       <c r="AA71">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB71">
         <v>8000</v>
@@ -6725,7 +6725,7 @@
         <v>117</v>
       </c>
       <c r="AA72">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB72">
         <v>8000</v>
@@ -6808,7 +6808,7 @@
         <v>117</v>
       </c>
       <c r="AA73">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB73">
         <v>8000</v>
@@ -6891,7 +6891,7 @@
         <v>117</v>
       </c>
       <c r="AA74">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AB74">
         <v>8000</v>
@@ -6974,7 +6974,7 @@
         <v>117</v>
       </c>
       <c r="AA75">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AB75">
         <v>8000</v>
@@ -7057,7 +7057,7 @@
         <v>117</v>
       </c>
       <c r="AA76">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AB76">
         <v>8000</v>
@@ -7140,7 +7140,7 @@
         <v>117</v>
       </c>
       <c r="AA77">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AB77">
         <v>8000</v>
@@ -7223,7 +7223,7 @@
         <v>117</v>
       </c>
       <c r="AA78">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AB78">
         <v>8000</v>
@@ -7306,7 +7306,7 @@
         <v>117</v>
       </c>
       <c r="AA79">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AB79">
         <v>8000</v>
@@ -7638,7 +7638,7 @@
         <v>117</v>
       </c>
       <c r="AA83">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AB83">
         <v>8000</v>
@@ -7721,7 +7721,7 @@
         <v>117</v>
       </c>
       <c r="AA84">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AB84">
         <v>8000</v>
@@ -7804,7 +7804,7 @@
         <v>117</v>
       </c>
       <c r="AA85">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AB85">
         <v>8000</v>
@@ -7887,7 +7887,7 @@
         <v>117</v>
       </c>
       <c r="AA86">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AB86">
         <v>8000</v>
@@ -7970,7 +7970,7 @@
         <v>117</v>
       </c>
       <c r="AA87">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AB87">
         <v>8000</v>
@@ -8053,7 +8053,7 @@
         <v>117</v>
       </c>
       <c r="AA88">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AB88">
         <v>8000</v>
@@ -8385,7 +8385,7 @@
         <v>117</v>
       </c>
       <c r="AA92">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB92">
         <v>8000</v>
@@ -8468,7 +8468,7 @@
         <v>117</v>
       </c>
       <c r="AA93">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB93">
         <v>8000</v>
@@ -8551,7 +8551,7 @@
         <v>117</v>
       </c>
       <c r="AA94">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB94">
         <v>8000</v>
@@ -8634,7 +8634,7 @@
         <v>117</v>
       </c>
       <c r="AA95">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB95">
         <v>8000</v>
@@ -8717,7 +8717,7 @@
         <v>117</v>
       </c>
       <c r="AA96">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB96">
         <v>8000</v>
@@ -8800,7 +8800,7 @@
         <v>117</v>
       </c>
       <c r="AA97">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB97">
         <v>8000</v>
@@ -8883,7 +8883,7 @@
         <v>117</v>
       </c>
       <c r="AA98">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB98">
         <v>8000</v>
@@ -8966,7 +8966,7 @@
         <v>117</v>
       </c>
       <c r="AA99">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB99">
         <v>8000</v>
@@ -9049,7 +9049,7 @@
         <v>117</v>
       </c>
       <c r="AA100">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB100">
         <v>8000</v>
@@ -9132,7 +9132,7 @@
         <v>117</v>
       </c>
       <c r="AA101">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB101">
         <v>8000</v>
@@ -9215,7 +9215,7 @@
         <v>117</v>
       </c>
       <c r="AA102">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB102">
         <v>8000</v>
@@ -9298,7 +9298,7 @@
         <v>117</v>
       </c>
       <c r="AA103">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB103">
         <v>8000</v>
@@ -9381,7 +9381,7 @@
         <v>117</v>
       </c>
       <c r="AA104">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB104">
         <v>8000</v>
@@ -9464,7 +9464,7 @@
         <v>117</v>
       </c>
       <c r="AA105">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB105">
         <v>8000</v>
@@ -9547,7 +9547,7 @@
         <v>117</v>
       </c>
       <c r="AA106">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB106">
         <v>8000</v>
@@ -9630,7 +9630,7 @@
         <v>117</v>
       </c>
       <c r="AA107">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB107">
         <v>8000</v>
@@ -9713,7 +9713,7 @@
         <v>117</v>
       </c>
       <c r="AA108">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB108">
         <v>8000</v>
@@ -9796,7 +9796,7 @@
         <v>117</v>
       </c>
       <c r="AA109">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB109">
         <v>8000</v>
@@ -10128,7 +10128,7 @@
         <v>117</v>
       </c>
       <c r="AA113">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="AB113">
         <v>8000</v>
@@ -10211,7 +10211,7 @@
         <v>117</v>
       </c>
       <c r="AA114">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="AB114">
         <v>8000</v>
@@ -10294,7 +10294,7 @@
         <v>117</v>
       </c>
       <c r="AA115">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="AB115">
         <v>8000</v>
@@ -12369,7 +12369,7 @@
         <v>117</v>
       </c>
       <c r="AA140">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB140">
         <v>8000</v>
@@ -12452,7 +12452,7 @@
         <v>117</v>
       </c>
       <c r="AA141">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB141">
         <v>8000</v>
@@ -12535,7 +12535,7 @@
         <v>117</v>
       </c>
       <c r="AA142">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB142">
         <v>8000</v>
@@ -12867,7 +12867,7 @@
         <v>117</v>
       </c>
       <c r="AA146">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB146">
         <v>8000</v>
@@ -12950,7 +12950,7 @@
         <v>117</v>
       </c>
       <c r="AA147">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB147">
         <v>8000</v>
@@ -13033,7 +13033,7 @@
         <v>117</v>
       </c>
       <c r="AA148">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB148">
         <v>8000</v>
@@ -13122,7 +13122,7 @@
         <v>117</v>
       </c>
       <c r="AA149">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB149">
         <v>8000</v>
@@ -13205,7 +13205,7 @@
         <v>117</v>
       </c>
       <c r="AA150">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB150">
         <v>8000</v>
@@ -13288,7 +13288,7 @@
         <v>117</v>
       </c>
       <c r="AA151">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB151">
         <v>8000</v>
@@ -13371,7 +13371,7 @@
         <v>117</v>
       </c>
       <c r="AA152">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB152">
         <v>8000</v>
@@ -13460,7 +13460,7 @@
         <v>117</v>
       </c>
       <c r="AA153">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB153">
         <v>8000</v>
@@ -13549,7 +13549,7 @@
         <v>117</v>
       </c>
       <c r="AA154">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB154">
         <v>8000</v>
